--- a/catalyst0721.xlsx
+++ b/catalyst0721.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuhyun/Documents/Users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFBE16E-63B0-2743-9230-3FE31EDD9366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F56E5E6-FFF7-414C-A75A-CBA1B8F2533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="236">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +106,24 @@
     <t>F</t>
   </si>
   <si>
+    <t>199e4735-7ca2-41f0-ac65-9ee9230da707</t>
+  </si>
+  <si>
+    <t>e4a99d45-d0ff-4882-95b5-5d396f216d10</t>
+  </si>
+  <si>
+    <t>nkordonowy@thorntreecap.com</t>
+  </si>
+  <si>
+    <t>ThornTree Capital Partners</t>
+  </si>
+  <si>
+    <t>BBG001S61J73</t>
+  </si>
+  <si>
+    <t>CIEN</t>
+  </si>
+  <si>
     <t>1b0cce65-1439-4230-9774-2f729a5b548a</t>
   </si>
   <si>
@@ -265,6 +283,24 @@
     <t>DUOL</t>
   </si>
   <si>
+    <t>39bfaffe-e0d8-4c35-8516-8cd79de42742</t>
+  </si>
+  <si>
+    <t>9b5aba58-3883-4c36-8fe7-9e042d3f104e</t>
+  </si>
+  <si>
+    <t>chelseahu@jmcopperbeech.com</t>
+  </si>
+  <si>
+    <t>J&amp;M Copper Beech Ventures</t>
+  </si>
+  <si>
+    <t>BBG00VT0KP47</t>
+  </si>
+  <si>
+    <t>MTCH</t>
+  </si>
+  <si>
     <t>3e6cac75-e81e-4f9a-9fa4-2b4d373ae22c</t>
   </si>
   <si>
@@ -310,6 +346,24 @@
     <t>PLTR</t>
   </si>
   <si>
+    <t>4e19c407-bdc0-4dbe-b5b3-0540bb949413</t>
+  </si>
+  <si>
+    <t>1576fa91-eefb-4ca0-bc18-e835370f4b3e</t>
+  </si>
+  <si>
+    <t>evelyn.ye@turiyacap.com</t>
+  </si>
+  <si>
+    <t>Turiya Capital</t>
+  </si>
+  <si>
+    <t>BBG001SQKGD7</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
     <t>504a2f4c-9c9d-43c4-9972-3cbbefe79326</t>
   </si>
   <si>
@@ -346,12 +400,6 @@
     <t>5c943f33-4163-4426-9d43-d5954cbcf490</t>
   </si>
   <si>
-    <t>BBG001SQKGD7</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
     <t>5fb53810-1307-4455-8948-3de8cedcc54b</t>
   </si>
   <si>
@@ -529,6 +577,15 @@
     <t>b1721fbc-1d40-4533-a2c2-86790c83d62f</t>
   </si>
   <si>
+    <t>b1c074ec-f921-4f43-bd1b-2213a2e99592</t>
+  </si>
+  <si>
+    <t>BBG001TG2NG0</t>
+  </si>
+  <si>
+    <t>TTSH</t>
+  </si>
+  <si>
     <t>b6c42ff2-614d-4d44-b78f-7bc07963ec6d</t>
   </si>
   <si>
@@ -571,6 +628,21 @@
     <t>DKS</t>
   </si>
   <si>
+    <t>ce60ef31-49c4-47b6-b91b-5dae18b78483</t>
+  </si>
+  <si>
+    <t>e2cea527-6dfe-45ca-9053-2b5edda09e78</t>
+  </si>
+  <si>
+    <t>simon.kemp@turiyacap.com</t>
+  </si>
+  <si>
+    <t>BBG00XLWSWN7</t>
+  </si>
+  <si>
+    <t>ENR</t>
+  </si>
+  <si>
     <t>d363e12e-ce2f-437d-b4c9-3ef5a235a0b5</t>
   </si>
   <si>
@@ -586,6 +658,24 @@
     <t>e1ea662f-b75a-4f09-814b-af86cce93395</t>
   </si>
   <si>
+    <t>e50daffe-eade-458f-8855-b27d961ac41d</t>
+  </si>
+  <si>
+    <t>e300186b-8c19-4210-8e03-8349191c9cc8</t>
+  </si>
+  <si>
+    <t>sdey@panvira.com</t>
+  </si>
+  <si>
+    <t>Panvira</t>
+  </si>
+  <si>
+    <t>BBG001T4NKS7</t>
+  </si>
+  <si>
+    <t>MMYT</t>
+  </si>
+  <si>
     <t>e8ab2315-b588-42bb-9347-58ee05cabfc6</t>
   </si>
   <si>
@@ -601,6 +691,18 @@
     <t>SE</t>
   </si>
   <si>
+    <t>eed412c2-27ec-4ca5-a4f5-ab44f36104f6</t>
+  </si>
+  <si>
+    <t>f11f6cc8-9e60-4269-ae76-46fe11865194</t>
+  </si>
+  <si>
+    <t>BBG001S6KQ49</t>
+  </si>
+  <si>
+    <t>STO</t>
+  </si>
+  <si>
     <t>f227cd20-b0b0-4ca5-aae4-a3247c26278b</t>
   </si>
   <si>
@@ -613,10 +715,19 @@
     <t>fbe32f11-84b7-46cd-8218-4f69a7aec58a</t>
   </si>
   <si>
-    <t>BBG001TG2NG0</t>
-  </si>
-  <si>
-    <t>TTSH</t>
+    <t>fc25c11d-b703-4398-925f-8b273bfc443f</t>
+  </si>
+  <si>
+    <t>6559b84b-a340-4c4d-8f29-bf480dfebef0</t>
+  </si>
+  <si>
+    <t>chris.zhou@turiyacap.com</t>
+  </si>
+  <si>
+    <t>BBG00W0KZF57</t>
+  </si>
+  <si>
+    <t>LI</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -995,7 +1106,7 @@
   <cols>
     <col min="1" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -1136,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="1">
-        <v>45820.375788956851</v>
+        <v>45820.751675245148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1159,7 +1270,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="1">
-        <v>45847.081465336116</v>
+        <v>45820.375788956851</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1167,105 +1278,105 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
-        <v>45855.538883099973</v>
+        <v>45847.081465336116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>45847.074285736468</v>
+        <v>45855.538883099973</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1">
-        <v>45824.100933316309</v>
+        <v>45847.074285736468</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1">
-        <v>45834.14399110301</v>
+        <v>45824.100933316309</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -1274,7 +1385,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>45844.277263507945</v>
+        <v>45834.14399110301</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1288,550 +1399,550 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1">
-        <v>45848.183918207629</v>
+        <v>45844.277263507945</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1">
-        <v>45819.098278850048</v>
+        <v>45848.183918207629</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1">
-        <v>45845.407676754447</v>
+        <v>45819.098278850048</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1">
-        <v>45819.917150930552</v>
+        <v>45845.407676754447</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1">
-        <v>45847.083484106399</v>
+        <v>45819.917150930552</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1">
-        <v>45821.263147614831</v>
+        <v>45847.083484106399</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1">
-        <v>45827.426445822544</v>
+        <v>45840.874703961133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
-        <v>45823.803775688677</v>
+        <v>45821.263147614831</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1">
-        <v>45845.40570066998</v>
+        <v>45827.426445822544</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22">
-        <v>6198</v>
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
       </c>
       <c r="G22" s="1">
-        <v>45826.056496328769</v>
+        <v>45823.803775688677</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="G23" s="1">
-        <v>45834.340428716088</v>
+        <v>45845.40570066998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1">
-        <v>45852.642943440289</v>
+        <v>45832.42438748631</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>6198</v>
       </c>
       <c r="G25" s="1">
-        <v>45827.267833219434</v>
+        <v>45826.056496328769</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1">
-        <v>45847.083300159451</v>
+        <v>45834.340428716088</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G27" s="1">
-        <v>45828.448865513623</v>
+        <v>45852.642943440289</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1">
-        <v>45819.099742102189</v>
+        <v>45827.267833219434</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1">
-        <v>45826.431188793227</v>
+        <v>45847.083300159451</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G30" s="1">
-        <v>45847.071162722008</v>
+        <v>45828.448865513623</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="G31" s="1">
-        <v>45852.6438558511</v>
+        <v>45819.099742102189</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G32" s="1">
-        <v>45834.133966746936</v>
+        <v>45826.431188793227</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G33" s="1">
-        <v>45827.035479874823</v>
+        <v>45847.071162722008</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="G34" s="1">
-        <v>45826.056167031435</v>
+        <v>45852.6438558511</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G35" s="1">
-        <v>45847.071482022395</v>
+        <v>45834.133966746936</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G36" s="1">
-        <v>45823.80286291727</v>
+        <v>45827.035479874823</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -1843,110 +1954,110 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G37" s="1">
-        <v>45827.247704400928</v>
+        <v>45826.056167031435</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G38" s="1">
-        <v>45854.359611196385</v>
+        <v>45847.071482022395</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G39" s="1">
-        <v>45820.376332813888</v>
+        <v>45823.80286291727</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G40" s="1">
-        <v>45846.093352930613</v>
+        <v>45827.247704400928</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1">
-        <v>45821.261049438239</v>
+        <v>45854.359611196385</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -1958,496 +2069,703 @@
         <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="G42" s="1">
-        <v>45847.075216714809</v>
+        <v>45820.376332813888</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="G43" s="1">
-        <v>45793.031386400544</v>
+        <v>45846.093352930613</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="G44" s="1">
-        <v>45852.643439250765</v>
+        <v>45821.261049438239</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G45" s="1">
-        <v>45847.513631895657</v>
+        <v>45847.075216714809</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="G46" s="1">
-        <v>45855.207884799122</v>
+        <v>45793.031386400544</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="G47" s="1">
-        <v>45852.461813391332</v>
+        <v>45852.643439250765</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48" s="1">
-        <v>45852.642102952457</v>
+        <v>45847.513631895657</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G49" s="1">
-        <v>45805.061872842685</v>
+        <v>45855.207884799122</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50">
-        <v>2899</v>
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>113</v>
       </c>
       <c r="G50" s="1">
-        <v>45825.0743862655</v>
+        <v>45852.461813391332</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="G51" s="1">
-        <v>45820.376080956506</v>
+        <v>45852.642102952457</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="G52" s="1">
-        <v>45847.082152884628</v>
+        <v>45805.061872842685</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" t="s">
-        <v>33</v>
+        <v>183</v>
+      </c>
+      <c r="F53">
+        <v>2899</v>
       </c>
       <c r="G53" s="1">
-        <v>45818.903043421749</v>
+        <v>45825.0743862655</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1">
-        <v>45826.056416384097</v>
+        <v>45820.376080956506</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="G55" s="1">
-        <v>45828.413048958704</v>
+        <v>45821.33051707632</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="G56" s="1">
-        <v>45834.720505668927</v>
+        <v>45847.082152884628</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="G57" s="1">
-        <v>45858.296736180127</v>
+        <v>45818.903043421749</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="G58" s="1">
-        <v>45819.917611075289</v>
+        <v>45826.056416384097</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G59" s="1">
-        <v>45844.277916502986</v>
+        <v>45828.413048958704</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="E60" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G60" s="1">
-        <v>45853.023232169617</v>
+        <v>45834.720505668927</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="G61" s="1">
-        <v>45834.161097063887</v>
+        <v>45825.237634789788</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
-      </c>
-      <c r="F62">
-        <v>941</v>
+        <v>208</v>
+      </c>
+      <c r="F62" t="s">
+        <v>209</v>
       </c>
       <c r="G62" s="1">
-        <v>45826.056926798854</v>
+        <v>45858.296736180127</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D63" t="s">
         <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="G63" s="1">
+        <v>45819.917611075289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45844.277916502986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45853.275123419466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" t="s">
+        <v>222</v>
+      </c>
+      <c r="G66" s="1">
+        <v>45853.023232169617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="1">
+        <v>45853.275779321026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" t="s">
+        <v>225</v>
+      </c>
+      <c r="F68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="1">
+        <v>45825.237288516328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="1">
+        <v>45834.161097063887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>229</v>
+      </c>
+      <c r="F70">
+        <v>941</v>
+      </c>
+      <c r="G70" s="1">
+        <v>45826.056926798854</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" s="1">
         <v>45834.371447563855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" s="1">
+        <v>45820.257772087192</v>
       </c>
     </row>
   </sheetData>
